--- a/analytics/exports/bike_store_report.xlsx
+++ b/analytics/exports/bike_store_report.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Store Performance" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Order Status'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Order Status'!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Revenue by Store'!$A$1:$B$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Top Products'!$A$1:$C$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Monthly Sales'!$A$1:$C$36</definedName>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -469,6 +469,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,6 +488,11 @@
           <t>percentage</t>
         </is>
       </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>status_text</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -498,6 +504,11 @@
       <c r="C2" t="n">
         <v>89.47</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -509,6 +520,11 @@
       <c r="C3" t="n">
         <v>3.9</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Processing</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -520,6 +536,11 @@
       <c r="C4" t="n">
         <v>3.84</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -531,9 +552,14 @@
       <c r="C5" t="n">
         <v>2.79</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:D5"/>
   <conditionalFormatting sqref="A2:A5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -772,12 +798,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trek Slash 8 27.5 - 2016</t>
+          <t>Electra Girl's Hawaii 1 (20-inch) - 2015/2016</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Trek</t>
+          <t>Electra</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -787,12 +813,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Electra Girl's Hawaii 1 (20-inch) - 2015/2016</t>
+          <t>Trek Slash 8 27.5 - 2016</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Electra</t>
+          <t>Trek</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1352,81 +1378,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Haro</t>
+          <t>Sun Bicycles</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>629.2627272727273</v>
+        <v>529.4085567010309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electra</t>
+          <t>Ritchey</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>519.3942278773858</v>
+        <v>749.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sun Bicycles</t>
+          <t>Electra</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>529.4085567010309</v>
+        <v>519.3942278773858</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Heller</t>
+          <t>Haro</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1400.042164948454</v>
+        <v>629.2627272727273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Surly</t>
+          <t>Trek</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165.934198347107</v>
+        <v>2766.872591093118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trek</t>
+          <t>Surly</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2766.872591093118</v>
+        <v>1165.934198347107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ritchey</t>
+          <t>Pure Cycles</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.99</v>
+        <v>441.9457364341085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pure Cycles</t>
+          <t>Heller</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>441.9457364341085</v>
+        <v>1400.042164948454</v>
       </c>
     </row>
     <row r="10">
